--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_41.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_41.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999402035573048</v>
+        <v>0.9366854468728506</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8286284199557141</v>
+        <v>0.7445401220546951</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8213351364132029</v>
+        <v>0.6653420284150953</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998707509425795</v>
+        <v>0.8708652795281692</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002489042890940873</v>
+        <v>0.2635485176897924</v>
       </c>
       <c r="G2" t="n">
-        <v>1.145962544849708</v>
+        <v>1.708261380104832</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6390738574659579</v>
+        <v>1.197052159775094</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006073228438116365</v>
+        <v>0.2709043158582617</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05281900607885342</v>
+        <v>1.264833609274946</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01577670083046792</v>
+        <v>0.5133697670196331</v>
       </c>
       <c r="L2" t="n">
-        <v>1.00382697233249</v>
+        <v>0.9137844382949455</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01602516809763291</v>
+        <v>0.5214548276686986</v>
       </c>
       <c r="N2" t="n">
-        <v>146.5968842330824</v>
+        <v>36.66703560019035</v>
       </c>
       <c r="O2" t="n">
-        <v>287.9320567762987</v>
+        <v>73.63161918841617</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999371569193692</v>
+        <v>0.9366234893193927</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8286269769298857</v>
+        <v>0.744298804754664</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8210812378139023</v>
+        <v>0.6655737788041537</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998728890036468</v>
+        <v>0.8712004439417994</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002615860008367912</v>
+        <v>0.2638064176601316</v>
       </c>
       <c r="G3" t="n">
-        <v>1.145972194370067</v>
+        <v>1.709875070001304</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6399820380337697</v>
+        <v>1.196223202071092</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000597276400506431</v>
+        <v>0.2702011936782409</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05538231397326148</v>
+        <v>1.264625801352982</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01617362052345705</v>
+        <v>0.5136208890418414</v>
       </c>
       <c r="L3" t="n">
-        <v>1.004021957160369</v>
+        <v>0.9137000705625773</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01642833887901249</v>
+        <v>0.5217099046117268</v>
       </c>
       <c r="N3" t="n">
-        <v>146.4974949068679</v>
+        <v>36.66507942249209</v>
       </c>
       <c r="O3" t="n">
-        <v>287.8326674500843</v>
+        <v>73.62966301071791</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999368180900648</v>
+        <v>0.9364997779243475</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8285975599283999</v>
+        <v>0.7441430322318586</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8209926849449209</v>
+        <v>0.6658886865777236</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998766730094857</v>
+        <v>0.8717369556279424</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002629963868617909</v>
+        <v>0.2643213696447095</v>
       </c>
       <c r="G4" t="n">
-        <v>1.146168905994456</v>
+        <v>1.71091672157857</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6402987865115254</v>
+        <v>1.195096795224434</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005794958980181714</v>
+        <v>0.2690756766154908</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0561884023398956</v>
+        <v>1.264562848526757</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01621716334202104</v>
+        <v>0.5141219404428384</v>
       </c>
       <c r="L4" t="n">
-        <v>1.00404364223585</v>
+        <v>0.9135316124927284</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01647256745344201</v>
+        <v>0.5222188470714219</v>
       </c>
       <c r="N4" t="n">
-        <v>146.486740528098</v>
+        <v>36.66117921379147</v>
       </c>
       <c r="O4" t="n">
-        <v>287.8219130713143</v>
+        <v>73.62576280201729</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999369573347001</v>
+        <v>0.936486619512867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8283835365174078</v>
+        <v>0.7441275540327612</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8208164185881002</v>
+        <v>0.6659135230652373</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998934194210658</v>
+        <v>0.8717855122284887</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000262416777350226</v>
+        <v>0.2643761418837848</v>
       </c>
       <c r="G5" t="n">
-        <v>1.147600081529247</v>
+        <v>1.711020224367205</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6409292810493629</v>
+        <v>1.1950079565487</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0005008069040132745</v>
+        <v>0.2689738125110629</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05742283922257088</v>
+        <v>1.264575992435855</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01619928323569367</v>
+        <v>0.5141752054346697</v>
       </c>
       <c r="L5" t="n">
-        <v>1.004034730579193</v>
+        <v>0.913513694655819</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01645440575331354</v>
+        <v>0.5222729509336289</v>
       </c>
       <c r="N5" t="n">
-        <v>146.4911531297316</v>
+        <v>36.66076482001751</v>
       </c>
       <c r="O5" t="n">
-        <v>287.826325672948</v>
+        <v>73.62534840824334</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999344985078535</v>
+        <v>0.936473115694351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.828298736618298</v>
+        <v>0.744079524102071</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8205551604166034</v>
+        <v>0.6659377201599628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998957051443444</v>
+        <v>0.8718340595880365</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000272651709742158</v>
+        <v>0.264432351888867</v>
       </c>
       <c r="G6" t="n">
-        <v>1.148167138845062</v>
+        <v>1.711341400734888</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6418637863801877</v>
+        <v>1.194921404943895</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004900666170864243</v>
+        <v>0.2688719677927952</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05913581826133394</v>
+        <v>1.264590375972697</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01651216853542132</v>
+        <v>0.5142298628909712</v>
       </c>
       <c r="L6" t="n">
-        <v>1.004192095497373</v>
+        <v>0.9134953064774141</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01677221868374135</v>
+        <v>0.5223284691902298</v>
       </c>
       <c r="N6" t="n">
-        <v>146.4146307315611</v>
+        <v>36.66033963769949</v>
       </c>
       <c r="O6" t="n">
-        <v>287.7498032747775</v>
+        <v>73.6249232259253</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999295345949523</v>
+        <v>0.9363668590022854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8281008697107671</v>
+        <v>0.743923249627206</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8206335155077571</v>
+        <v>0.6660791092785541</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998903772370029</v>
+        <v>0.8721730317039983</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002933141297142851</v>
+        <v>0.264874648206307</v>
       </c>
       <c r="G7" t="n">
-        <v>1.149490275766814</v>
+        <v>1.712386408867888</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6415835147624198</v>
+        <v>1.194415664264906</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0005151016920247696</v>
+        <v>0.2681608576526708</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05993871812623598</v>
+        <v>1.264836890200274</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01712641613748437</v>
+        <v>0.5146597402229039</v>
       </c>
       <c r="L7" t="n">
-        <v>1.004509785923055</v>
+        <v>0.9133506165137504</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01739614007151456</v>
+        <v>0.5227651166604208</v>
       </c>
       <c r="N7" t="n">
-        <v>146.2685328163726</v>
+        <v>36.65699718108883</v>
       </c>
       <c r="O7" t="n">
-        <v>287.603705359589</v>
+        <v>73.62158076931465</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999291227368631</v>
+        <v>0.9363500664521509</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8279832871925138</v>
+        <v>0.7439186481106441</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8204635707289296</v>
+        <v>0.6660966735535435</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998947160235027</v>
+        <v>0.8722195568726243</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002950285000060062</v>
+        <v>0.2649445476445501</v>
       </c>
       <c r="G8" t="n">
-        <v>1.150276550607792</v>
+        <v>1.712417179230325</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6421913973823214</v>
+        <v>1.194352837871704</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004947143545202666</v>
+        <v>0.2680632551726345</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05901110371385219</v>
+        <v>1.264882487765473</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01717639368453128</v>
+        <v>0.5147276441425601</v>
       </c>
       <c r="L8" t="n">
-        <v>1.004536144840763</v>
+        <v>0.9133277500625033</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01744690471496824</v>
+        <v>0.5228340899989325</v>
       </c>
       <c r="N8" t="n">
-        <v>146.2568771922021</v>
+        <v>36.65646945812826</v>
       </c>
       <c r="O8" t="n">
-        <v>287.5920497354185</v>
+        <v>73.62105304635409</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999929935466109</v>
+        <v>0.9363328024074764</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8278919093668374</v>
+        <v>0.7438997837557959</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8202090226996546</v>
+        <v>0.6661131648076726</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998995670558869</v>
+        <v>0.872265771720933</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002916454928224892</v>
+        <v>0.2650164096914028</v>
       </c>
       <c r="G9" t="n">
-        <v>1.150887594548846</v>
+        <v>1.712543325258057</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6431019009234957</v>
+        <v>1.194293849611902</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004719200468343287</v>
+        <v>0.2679663036957752</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05846060189135539</v>
+        <v>1.264932588256858</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01707763135866591</v>
+        <v>0.5147974453038814</v>
       </c>
       <c r="L9" t="n">
-        <v>1.004484130169025</v>
+        <v>0.9133042415761381</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01734658698119659</v>
+        <v>0.522904990458769</v>
       </c>
       <c r="N9" t="n">
-        <v>146.2799431178943</v>
+        <v>36.65592706309861</v>
       </c>
       <c r="O9" t="n">
-        <v>287.6151156611107</v>
+        <v>73.62051065132442</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999294047119891</v>
+        <v>0.9362968163891142</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8278675458982369</v>
+        <v>0.7438485541116376</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8201532141325825</v>
+        <v>0.6661433515968218</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999011085635097</v>
+        <v>0.8723566810263915</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002938547710160574</v>
+        <v>0.265166202453548</v>
       </c>
       <c r="G10" t="n">
-        <v>1.151050513175562</v>
+        <v>1.712885898124435</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6433015249319457</v>
+        <v>1.194185873217446</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004646767228831883</v>
+        <v>0.2677755902833763</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0590388728174177</v>
+        <v>1.265049117664337</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01714219271318746</v>
+        <v>0.5149429118393106</v>
       </c>
       <c r="L10" t="n">
-        <v>1.004518098432698</v>
+        <v>0.9132552393383683</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01741216511251418</v>
+        <v>0.5230527479467181</v>
       </c>
       <c r="N10" t="n">
-        <v>146.2648497776157</v>
+        <v>36.65479694104104</v>
       </c>
       <c r="O10" t="n">
-        <v>287.6000223208321</v>
+        <v>73.61938052926686</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999284602397959</v>
+        <v>0.9362389863568893</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8278500622697376</v>
+        <v>0.7438374298854376</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8200973370719801</v>
+        <v>0.6661810164527064</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999011525897923</v>
+        <v>0.8724888855271186</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002977861617347045</v>
+        <v>0.2654069215065633</v>
       </c>
       <c r="G11" t="n">
-        <v>1.151167426279841</v>
+        <v>1.712960285876257</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6435013939377825</v>
+        <v>1.194051148211881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0004644698496754366</v>
+        <v>0.2674982460517708</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05948934221123339</v>
+        <v>1.265254069420214</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01725648173106861</v>
+        <v>0.5151765925452779</v>
       </c>
       <c r="L11" t="n">
-        <v>1.004578544653064</v>
+        <v>0.913176492060445</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01752825406817985</v>
+        <v>0.5232901088902093</v>
       </c>
       <c r="N11" t="n">
-        <v>146.2382698142254</v>
+        <v>36.65298215579345</v>
       </c>
       <c r="O11" t="n">
-        <v>287.5734423574418</v>
+        <v>73.61756574401927</v>
       </c>
     </row>
   </sheetData>
